--- a/data/long_dif/P23_8-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_8-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>19,38%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,18%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,01; 32,68</t>
+          <t>13,67; 31,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 18,48</t>
+          <t>5,31; 19,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 24,55</t>
+          <t>11,91; 35,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 21,71</t>
+          <t>8,18; 37,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 25,7</t>
+          <t>9,08; 22,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 17,57</t>
+          <t>8,62; 21,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,41; 27,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 36,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 25,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8,47; 18,27</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,61; 27,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 29,4</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>69,13%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69,12%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>65,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>69,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>72,27%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56,82%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>69,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71,86%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57,4%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,37; 77,92</t>
+          <t>60,06; 79,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,36; 79,06</t>
+          <t>60,82; 80,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,02; 77,02</t>
+          <t>51,12; 76,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63,16; 79,06</t>
+          <t>42,43; 72,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,35; 75,1</t>
+          <t>59,39; 77,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,44; 76,07</t>
+          <t>63,4; 79,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44,31; 64,32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42,33; 71,01</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>62,38; 76,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>64,88; 77,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51,34; 68,94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46,47; 68,37</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>13,71%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23,23%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 14,65</t>
+          <t>3,33; 15,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,93; 32,91</t>
+          <t>10,22; 26,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 25,39</t>
+          <t>5,84; 23,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 20,77</t>
+          <t>12,27; 38,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 17,88</t>
+          <t>10,12; 24,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 23,7</t>
+          <t>9,05; 20,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 37,98</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12,56; 35,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 16,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,28; 21,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 27,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 33,74</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 42,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 22,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 23,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 15,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 30,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 17,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,69; 72,65</t>
+          <t>13,99; 42,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,48; 79,04</t>
+          <t>6,71; 23,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,68; 78,32</t>
+          <t>5,99; 20,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71,74; 84,84</t>
+          <t>7,11; 30,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>57,5; 73,19</t>
+          <t>10,61; 23,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,2; 79,43</t>
+          <t>5,88; 15,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,01; 20,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 24,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 32,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 17,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,01; 17,05</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,29; 23,42</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>59,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>69,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>62,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>79,39%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>69,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>60,34%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>64,79%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>74,06%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>65,83%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>64,5%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 29,69</t>
+          <t>43,16; 71,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,51; 36,26</t>
+          <t>53,02; 79,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 21,45</t>
+          <t>46,77; 77,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,37</t>
+          <t>48,64; 84,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,0; 22,34</t>
+          <t>62,05; 77,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 26,83</t>
+          <t>73,18; 84,9</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>60,08; 77,16</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49,14; 70,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>54,03; 72,29</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>63,39; 80,11</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>56,19; 74,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53,14; 74,55</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,33; 31,72</t>
+          <t>8,85; 34,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,04; 23,54</t>
+          <t>9,22; 39,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,34; 25,82</t>
+          <t>13,48; 43,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,0; 15,73</t>
+          <t>4,96; 34,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,93; 26,94</t>
+          <t>8,27; 21,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,73</t>
+          <t>6,87; 15,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 26,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 35,93</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 25,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 25,73</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 32,52</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 30,39</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>63,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>50,87; 68,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>62,23; 77,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,79; 69,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64,97; 76,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>56,54; 67,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,97; 75,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19,73%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,12; 25,96</t>
+          <t>16,7; 30,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,98; 20,11</t>
+          <t>8,98; 22,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,34; 21,92</t>
+          <t>11,35; 23,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,32; 22,7</t>
+          <t>12,92; 29,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,11; 20,42</t>
+          <t>15,17; 25,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,68; 19,47</t>
+          <t>8,15; 15,93</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 22,55</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 28,24</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 26,02</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 17,48</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>13,17; 21,27</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 25,68</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>61,38%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>52,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>70,83%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67,56%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>60,21%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>62,3%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>64,61%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>56,25%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>16,88; 31,42</t>
+          <t>51,61; 69,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,38; 25,12</t>
+          <t>63,48; 78,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,62; 21,63</t>
+          <t>52,61; 68,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,94; 24,52</t>
+          <t>41,66; 63,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,22; 24,58</t>
+          <t>56,59; 69,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,97; 22,43</t>
+          <t>65,5; 75,7</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61,09; 73,13</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>50,95; 68,89</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>57,15; 67,7</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>66,96; 76,21</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>59,57; 69,22</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>48,49; 62,82</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>58,48%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20,1%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>49,71; 64,48</t>
+          <t>10,45; 24,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>56,69; 70,73</t>
+          <t>9,41; 19,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>52,97; 66,02</t>
+          <t>16,14; 29,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>54,45; 65,53</t>
+          <t>18,15; 39,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>53,49; 63,32</t>
+          <t>12,28; 21,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>57,9; 66,34</t>
+          <t>13,8; 22,5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 20,82</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12,91; 28,26</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>12,62; 21,24</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 18,84</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 22,89</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 31,35</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15,08; 26,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,4; 23,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,09; 30,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,39; 25,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,44; 26,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>29,45%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>16,01; 30,33</t>
+          <t>16,21; 32,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>11,96; 23,37</t>
+          <t>12,41; 26,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,99; 28,04</t>
+          <t>13,44; 25,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>11,26; 20,72</t>
+          <t>26,28; 46,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>16,88; 26,4</t>
+          <t>11,95; 21,57</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,95</t>
+          <t>14,62; 23,43</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 25,38</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 31,01</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 24,92</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 22,96</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 23,89</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>23,23; 36,59</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>57,18%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>64,66%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>54,04%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>43,64%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>58,69%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>59,75%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>55,93%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>64,88%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
           <t>57,95%</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>63,94%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>59,95%</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>62,46%</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>58,91%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>63,19%</t>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>62,15%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>54,99%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>54,09%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>48,76; 65,96</t>
+          <t>48,21; 64,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>56,98; 70,7</t>
+          <t>56,09; 70,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>51,11; 67,88</t>
+          <t>43,49; 61,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>55,14; 69,29</t>
+          <t>33,87; 54,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>52,58; 64,42</t>
+          <t>52,05; 65,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>57,91; 67,86</t>
+          <t>54,41; 65,74</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>49,49; 62,71</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>56,05; 74,02</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>53,0; 62,91</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>57,66; 66,65</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>48,65; 60,25</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>46,35; 60,82</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>24,33%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>12,88; 29,96</t>
+          <t>14,78; 26,31</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>14,19; 25,66</t>
+          <t>13,31; 22,89</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>14,89; 28,12</t>
+          <t>19,55; 40,18</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>16,15; 27,9</t>
+          <t>13,2; 29,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>15,14; 26,28</t>
+          <t>19,75; 31,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,89; 25,1</t>
+          <t>17,27; 26,27</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 30,71</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 18,54</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>18,95; 27,03</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>16,46; 23,0</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>21,12; 34,16</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>11,68; 21,85</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>16,02; 39,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>11,28; 26,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18,37; 36,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11,44; 23,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>19,74; 34,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,06; 22,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>58,49%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>61,56%</t>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>19,22%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>16,38%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>21,12%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>46,89; 73,23</t>
+          <t>16,64; 31,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>49,59; 67,15</t>
+          <t>11,92; 24,14</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>46,53; 66,11</t>
+          <t>15,49; 33,63</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>55,6; 72,13</t>
+          <t>13,91; 30,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>50,92; 66,57</t>
+          <t>14,11; 27,29</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>55,97; 68,09</t>
+          <t>11,34; 21,4</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>13,11; 27,67</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 29,16</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 26,18</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 20,97</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>15,94; 27,44</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 27,3</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>64,0%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>59,81%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>58,34%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>62,26%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>59,8%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>47,49%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>58,0%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>63,12%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>59,8%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>52,62%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>8,22; 22,38</t>
+          <t>47,99; 65,71</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>17,36; 32,11</t>
+          <t>57,08; 70,93</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>11,99; 24,64</t>
+          <t>49,37; 68,54</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>11,86; 26,43</t>
+          <t>46,61; 69,01</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,94</t>
+          <t>50,23; 66,89</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>16,63; 26,74</t>
+          <t>55,72; 69,08</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>49,95; 68,19</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>38,65; 56,81</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>51,67; 63,76</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>58,44; 68,05</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>53,39; 65,67</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>45,63; 59,83</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>21,98%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>20,63%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>26,26%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>20,12; 27,98</t>
+          <t>13,0; 30,54</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,87</t>
+          <t>13,94; 24,54</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>16,22; 22,05</t>
+          <t>11,89; 25,66</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,94</t>
+          <t>12,12; 30,9</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>19,0; 23,97</t>
+          <t>14,96; 28,52</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,48</t>
+          <t>16,89; 28,65</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 29,32</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>23,06; 40,49</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>16,16; 27,95</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>16,82; 25,14</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 24,56</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 32,82</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>62,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>61,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>56,56; 64,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>62,74; 70,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>59,75; 66,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>65,13; 70,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>59,16; 64,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>65,18; 69,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>25,5%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>18,91%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,86</t>
+          <t>16,45; 37,2</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,55</t>
+          <t>11,15; 26,17</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>15,91; 20,85</t>
+          <t>4,86; 21,07</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>15,27; 19,56</t>
+          <t>7,77; 26,33</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>14,93; 18,77</t>
+          <t>17,95; 35,97</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>16,18; 20,26</t>
+          <t>11,37; 23,78</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>12,84; 30,64</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 38,15</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>19,55; 32,97</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 22,07</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>10,91; 23,58</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 29,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>59,49%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>57,63%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>60,07%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>58,05%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>57,06%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>63,88%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>47,99%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>52,55%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>58,13%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>61,02%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>53,39%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>54,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>48,48; 70,56</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>49,01; 66,92</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>49,23; 72,03</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>44,62; 71,74</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>46,82; 65,56</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>55,31; 71,94</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>37,61; 58,78</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>37,1; 66,0</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>50,78; 64,72</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>55,08; 66,43</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>45,69; 61,22</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>44,03; 64,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>28,92%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>31,83%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>21,87%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>26,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 22,38</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 33,14</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 39,95</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 40,58</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>11,85; 24,44</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 27,96</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>21,92; 42,4</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>14,38; 41,14</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 22,12</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 27,19</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>23,69; 38,32</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>18,69; 36,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>23,29%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>19,97; 27,83</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 18,06</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 20,08</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 26,49</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>16,47; 21,86</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>12,42; 16,51</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 21,08</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>16,44; 24,48</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>18,85; 23,68</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 16,55</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 19,57</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>18,13; 23,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>60,63%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>66,85%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>60,44%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>56,05%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>62,67%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>67,79%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>59,28%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>57,07%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>61,66%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>67,33%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>59,85%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>56,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>56,74; 64,9</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>62,58; 70,29</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>55,58; 65,17</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>50,3; 61,72</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>59,29; 65,74</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>65,02; 70,71</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>55,75; 63,06</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>52,33; 61,34</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>58,94; 64,35</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>65,11; 69,59</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>56,96; 62,71</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>52,68; 60,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 19,94</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 22,03</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 27,96</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>18,03; 27,46</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 20,82</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>15,61; 20,31</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 25,99</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>18,57; 27,0</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 19,42</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>16,12; 20,13</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>20,27; 25,38</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>19,56; 25,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_8-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_8-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
